--- a/data/trans_orig/P23_1_2016_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>266759</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>246312</v>
+        <v>245507</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>286547</v>
+        <v>287257</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6359539466340707</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5872079331299632</v>
+        <v>0.5852876614972803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6831281128177249</v>
+        <v>0.6848201446550963</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>277</v>
@@ -763,19 +763,19 @@
         <v>270153</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>251336</v>
+        <v>251525</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>288739</v>
+        <v>287604</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6826276888755373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6350788561510803</v>
+        <v>0.6355574142439382</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7295909020067056</v>
+        <v>0.726722728140444</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>527</v>
@@ -784,19 +784,19 @@
         <v>536912</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>509351</v>
+        <v>510312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>564216</v>
+        <v>568464</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6586121398604867</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6248039097585191</v>
+        <v>0.6259825651521773</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6921039666754243</v>
+        <v>0.6973156635366458</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>10402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5129</v>
+        <v>5151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17662</v>
+        <v>17892</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02479838196313424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01222692498977323</v>
+        <v>0.01227949211679079</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04210728853931048</v>
+        <v>0.04265549549477327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -834,19 +834,19 @@
         <v>20155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12259</v>
+        <v>12679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30064</v>
+        <v>30839</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05092828870247254</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03097693339330312</v>
+        <v>0.03203853460267229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07596580185768168</v>
+        <v>0.07792533663654268</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -855,19 +855,19 @@
         <v>30557</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21566</v>
+        <v>20231</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44302</v>
+        <v>41469</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03748338315342136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02645437016165906</v>
+        <v>0.02481641927407443</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0543433201110417</v>
+        <v>0.05086826682312683</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>10441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5136</v>
+        <v>5191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18539</v>
+        <v>18348</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02489173208396558</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01224426360902344</v>
+        <v>0.01237438629186159</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04419651118335816</v>
+        <v>0.04374054872665465</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -905,19 +905,19 @@
         <v>12216</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6609</v>
+        <v>6431</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21576</v>
+        <v>21139</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03086685035390105</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01669950161724037</v>
+        <v>0.01625040586570016</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05451768794006026</v>
+        <v>0.0534140374906879</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -926,19 +926,19 @@
         <v>22657</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14587</v>
+        <v>14545</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34861</v>
+        <v>33650</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02779240766319106</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01789324419897384</v>
+        <v>0.01784210890961889</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04276269052474092</v>
+        <v>0.04127708306311174</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>131861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112754</v>
+        <v>112038</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>150345</v>
+        <v>153300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3143559393188294</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2688064000196304</v>
+        <v>0.2670997939725274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3584221335128063</v>
+        <v>0.3654676258851122</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>95</v>
@@ -976,19 +976,19 @@
         <v>93231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76764</v>
+        <v>77886</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109907</v>
+        <v>109277</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2355771720680891</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1939681349407558</v>
+        <v>0.1968043192364527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2777137351066706</v>
+        <v>0.2761230126985298</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>218</v>
@@ -997,19 +997,19 @@
         <v>225092</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>199206</v>
+        <v>196872</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>250191</v>
+        <v>250497</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2761120693229008</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2443593484481783</v>
+        <v>0.2414965727801228</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3069001402560311</v>
+        <v>0.3072765646611533</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>276627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>249752</v>
+        <v>254277</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>301543</v>
+        <v>301615</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4684660038066225</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4229530288763355</v>
+        <v>0.4306152901885006</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5106599800258267</v>
+        <v>0.5107816926314915</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>298</v>
@@ -1122,19 +1122,19 @@
         <v>289754</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>266839</v>
+        <v>267971</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>311879</v>
+        <v>312117</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5141633410204964</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4735010506365722</v>
+        <v>0.4755107891029715</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5534237558122976</v>
+        <v>0.5538466835835184</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>567</v>
@@ -1143,19 +1143,19 @@
         <v>566381</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>530746</v>
+        <v>536044</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>599027</v>
+        <v>599480</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4907810422457043</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.459902299298796</v>
+        <v>0.4644936284138927</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.519069770821128</v>
+        <v>0.5194616378482637</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>52786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39842</v>
+        <v>39633</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68829</v>
+        <v>68666</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08939329165214603</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06747280281338483</v>
+        <v>0.06711789495263466</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1165617025068572</v>
+        <v>0.116286098507637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1193,19 +1193,19 @@
         <v>60759</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47018</v>
+        <v>47306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75941</v>
+        <v>75925</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.107816450518917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08343207617912263</v>
+        <v>0.08394460079699353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1347565225157048</v>
+        <v>0.1347274690245617</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -1214,19 +1214,19 @@
         <v>113546</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94936</v>
+        <v>95341</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>137268</v>
+        <v>136283</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09838973484438722</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0822636366454069</v>
+        <v>0.08261511393197454</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1189452692192722</v>
+        <v>0.1180921454783494</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>24432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15608</v>
+        <v>15743</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33672</v>
+        <v>34139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04137553705145682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02643176647823263</v>
+        <v>0.02666085519447614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05702368440141793</v>
+        <v>0.05781459206288113</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -1264,19 +1264,19 @@
         <v>24139</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15866</v>
+        <v>16758</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35046</v>
+        <v>35904</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04283365145762453</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02815392041807698</v>
+        <v>0.02973685534094572</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06218930674686442</v>
+        <v>0.06371138091223852</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>50</v>
@@ -1285,19 +1285,19 @@
         <v>48571</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>36146</v>
+        <v>36279</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>62332</v>
+        <v>62547</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04208756713911656</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03132126132345729</v>
+        <v>0.03143640175867501</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05401200914563122</v>
+        <v>0.05419809387570303</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>236650</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>214197</v>
+        <v>212058</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>264071</v>
+        <v>259265</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4007651674897747</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3627403520382247</v>
+        <v>0.3591175991930811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4472012246968449</v>
+        <v>0.4390624047097618</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>194</v>
@@ -1335,19 +1335,19 @@
         <v>188892</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>167092</v>
+        <v>168665</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>210179</v>
+        <v>211389</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3351865570029621</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2965021737187268</v>
+        <v>0.2992931593783545</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.372960140829476</v>
+        <v>0.3751057505401878</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>418</v>
@@ -1356,19 +1356,19 @@
         <v>425543</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>392901</v>
+        <v>391581</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>460868</v>
+        <v>455917</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3687416557707919</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3404572903671146</v>
+        <v>0.3393134597089499</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3993515268224282</v>
+        <v>0.3950613329825622</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>316116</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>292075</v>
+        <v>291501</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343445</v>
+        <v>343560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4732094669760707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4372217521044817</v>
+        <v>0.4363631555953282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5141200111968924</v>
+        <v>0.5142927112672886</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -1481,19 +1481,19 @@
         <v>340764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314917</v>
+        <v>315253</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>365677</v>
+        <v>363862</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5159495396657032</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4768157260874816</v>
+        <v>0.477324394005174</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5536712402767445</v>
+        <v>0.550922270928636</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>646</v>
@@ -1502,19 +1502,19 @@
         <v>656879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>618585</v>
+        <v>625011</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>692421</v>
+        <v>693988</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.494457794003644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4656327993958586</v>
+        <v>0.4704698672687755</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5212114816716942</v>
+        <v>0.5223914256109343</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>85886</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>69878</v>
+        <v>71339</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>106519</v>
+        <v>106739</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.128566626186696</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.10460352009461</v>
+        <v>0.1067911413456675</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1594529003066234</v>
+        <v>0.1597823291469296</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>98</v>
@@ -1552,19 +1552,19 @@
         <v>99152</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>80790</v>
+        <v>82692</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>119286</v>
+        <v>119690</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1501253636462815</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1223236588670984</v>
+        <v>0.1252030904383351</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1806106163821745</v>
+        <v>0.1812227602522096</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>178</v>
@@ -1573,19 +1573,19 @@
         <v>185037</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>160886</v>
+        <v>159962</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>210911</v>
+        <v>211372</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1392846029007128</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1211051440375546</v>
+        <v>0.1204096508858981</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1587609593006105</v>
+        <v>0.1591081405202722</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>20341</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12200</v>
+        <v>12634</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32714</v>
+        <v>32630</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03044949555901688</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01826213078754633</v>
+        <v>0.01891264810311418</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04897130908463867</v>
+        <v>0.04884489877018417</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1623,19 +1623,19 @@
         <v>11182</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5621</v>
+        <v>5672</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18367</v>
+        <v>18529</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01693001302976018</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008510875187400894</v>
+        <v>0.008587806793706659</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0278097675679619</v>
+        <v>0.02805459687846424</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1644,19 +1644,19 @@
         <v>31523</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21555</v>
+        <v>20958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43261</v>
+        <v>44192</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02372825322255046</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01622560064380468</v>
+        <v>0.01577604773928712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03256428558130654</v>
+        <v>0.03326513717940432</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>245683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>220975</v>
+        <v>219569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>271693</v>
+        <v>271327</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3677744112782165</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3307886930583783</v>
+        <v>0.3286843324577972</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4067108993698949</v>
+        <v>0.4061636003818945</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -1694,19 +1694,19 @@
         <v>209362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185361</v>
+        <v>188904</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>234126</v>
+        <v>234502</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3169950836582551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2806544775916919</v>
+        <v>0.2860193776036448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3544892875422539</v>
+        <v>0.3550588932717799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>447</v>
@@ -1715,19 +1715,19 @@
         <v>455044</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>419599</v>
+        <v>418865</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>490754</v>
+        <v>486435</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3425293498730927</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3158480773511175</v>
+        <v>0.3152959230204459</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3694090359846781</v>
+        <v>0.3661582481593298</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>237464</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>211410</v>
+        <v>212459</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>262378</v>
+        <v>261623</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3675641356557824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3272363977136335</v>
+        <v>0.3288595311968787</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4061280755686876</v>
+        <v>0.4049588902018568</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>295</v>
@@ -1840,19 +1840,19 @@
         <v>314557</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>289933</v>
+        <v>290067</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>339782</v>
+        <v>341409</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4862074991266614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.448146705814758</v>
+        <v>0.4483533796120318</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5251970780166446</v>
+        <v>0.527711317780352</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>512</v>
@@ -1861,19 +1861,19 @@
         <v>552021</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>516291</v>
+        <v>517848</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>590935</v>
+        <v>591361</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4269276722737093</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3992941265607519</v>
+        <v>0.4004987101094272</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.457022836369731</v>
+        <v>0.4573524865050469</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>130786</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110771</v>
+        <v>111493</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155833</v>
+        <v>152851</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2024399752478049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1714599649288282</v>
+        <v>0.1725768428629697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2412099291523691</v>
+        <v>0.2365939047923596</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -1911,19 +1911,19 @@
         <v>101575</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83206</v>
+        <v>84788</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>121382</v>
+        <v>123821</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1570030263700017</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1286100949372868</v>
+        <v>0.1310563610727023</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1876194457878307</v>
+        <v>0.1913884880540639</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>213</v>
@@ -1932,19 +1932,19 @@
         <v>232361</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>204219</v>
+        <v>207108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>261672</v>
+        <v>263006</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.17970547160929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1579412230367741</v>
+        <v>0.1601752825273733</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2023743223542818</v>
+        <v>0.2034057987780654</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>8709</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3473</v>
+        <v>4037</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17536</v>
+        <v>18333</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01348037127922567</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005374991581803803</v>
+        <v>0.006249523904257848</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02714313800952155</v>
+        <v>0.028377787338566</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -1982,19 +1982,19 @@
         <v>14433</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7352</v>
+        <v>7467</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24104</v>
+        <v>24343</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02230863010585601</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01136368303620073</v>
+        <v>0.01154201617927672</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03725772075240188</v>
+        <v>0.03762696975900537</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -2003,19 +2003,19 @@
         <v>23142</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13941</v>
+        <v>13646</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35904</v>
+        <v>34670</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01789761511651659</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01078205490847785</v>
+        <v>0.01055366048651435</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02776762568962525</v>
+        <v>0.02681367649524013</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>269089</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>243062</v>
+        <v>243078</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>297798</v>
+        <v>296010</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.416515517817187</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3762295451309896</v>
+        <v>0.3762530236176652</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4609534971610893</v>
+        <v>0.4581854228292328</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>199</v>
@@ -2053,19 +2053,19 @@
         <v>216396</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>193107</v>
+        <v>192439</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>242027</v>
+        <v>241522</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3344808443974809</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2984832622118792</v>
+        <v>0.2974511611029121</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3740986441132422</v>
+        <v>0.3733169862164412</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>438</v>
@@ -2074,19 +2074,19 @@
         <v>485485</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>450577</v>
+        <v>448708</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>525301</v>
+        <v>521053</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3754692410004841</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3484719370617684</v>
+        <v>0.3470258521537082</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4062622296027031</v>
+        <v>0.4029771461028677</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>171131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>151031</v>
+        <v>150472</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>194048</v>
+        <v>194150</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3580760818190898</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3160193951637897</v>
+        <v>0.3148495719232764</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4060276060720874</v>
+        <v>0.4062417362980342</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>276</v>
@@ -2199,19 +2199,19 @@
         <v>312217</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>288956</v>
+        <v>288180</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>334171</v>
+        <v>333439</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.629799403739409</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5828784858945762</v>
+        <v>0.5813137497390702</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.674085560798436</v>
+        <v>0.6726083872636651</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>427</v>
@@ -2220,19 +2220,19 @@
         <v>483348</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>448750</v>
+        <v>451810</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>514706</v>
+        <v>518080</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4964245713200615</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4608905144644431</v>
+        <v>0.4640332550254109</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5286315649234845</v>
+        <v>0.5320963434984274</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>159951</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>138620</v>
+        <v>138023</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>182256</v>
+        <v>181078</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3346823544153105</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2900499690342322</v>
+        <v>0.2888010847287563</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3813532311986044</v>
+        <v>0.3788901961167307</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -2270,19 +2270,19 @@
         <v>69436</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55338</v>
+        <v>54629</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>89445</v>
+        <v>87481</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1400652285880867</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1116264641845903</v>
+        <v>0.1101976453101139</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1804271710675501</v>
+        <v>0.1764663337789448</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>201</v>
@@ -2291,19 +2291,19 @@
         <v>229387</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>203690</v>
+        <v>203330</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>256851</v>
+        <v>256766</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2355926436060465</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2092009605824736</v>
+        <v>0.2088314969132197</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2638002065781182</v>
+        <v>0.2637125714365726</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>9350</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4266</v>
+        <v>4255</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18843</v>
+        <v>19506</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01956303962237292</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008925245411788907</v>
+        <v>0.008902498248743514</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03942808053877151</v>
+        <v>0.04081446130269369</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2341,19 +2341,19 @@
         <v>6679</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2280</v>
+        <v>2232</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13601</v>
+        <v>13419</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01347230161541235</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004599899299031113</v>
+        <v>0.004501533204431877</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02743490064672786</v>
+        <v>0.027068471425445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -2362,19 +2362,19 @@
         <v>16028</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9491</v>
+        <v>8791</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>25303</v>
+        <v>26593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0164619278103502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009748017120644457</v>
+        <v>0.009028655974689104</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02598768379420967</v>
+        <v>0.0273122492804932</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>137487</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>119085</v>
+        <v>116835</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>158462</v>
+        <v>160184</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2876785241432268</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.249174804292275</v>
+        <v>0.2444664625980504</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3315670917303674</v>
+        <v>0.3351713335659697</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>92</v>
@@ -2412,19 +2412,19 @@
         <v>107409</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>89204</v>
+        <v>89055</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>129252</v>
+        <v>129628</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.216663066057092</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1799421031899369</v>
+        <v>0.1796402638926685</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2607248319608542</v>
+        <v>0.2614837771111235</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>214</v>
@@ -2433,19 +2433,19 @@
         <v>244895</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>217346</v>
+        <v>216442</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>273670</v>
+        <v>275045</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2515208572635418</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2232265461000185</v>
+        <v>0.2222973291333173</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2810744417425015</v>
+        <v>0.2824862197294259</v>
       </c>
     </row>
     <row r="28">
@@ -2537,19 +2537,19 @@
         <v>134734</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>116763</v>
+        <v>114532</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>151445</v>
+        <v>151408</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.402997409272759</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3492462319762736</v>
+        <v>0.3425716434751556</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4529792666502638</v>
+        <v>0.4528699452265564</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>297</v>
@@ -2558,19 +2558,19 @@
         <v>315999</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>301513</v>
+        <v>301278</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>330435</v>
+        <v>331039</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.836501888502562</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7981551428335992</v>
+        <v>0.7975325974466136</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.874717676431839</v>
+        <v>0.8763161827387499</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>429</v>
@@ -2579,19 +2579,19 @@
         <v>450733</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>421751</v>
+        <v>421098</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>476326</v>
+        <v>473676</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6329698283308032</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5922706651832059</v>
+        <v>0.5913535042036908</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6689103547518349</v>
+        <v>0.6651887370971176</v>
       </c>
     </row>
     <row r="30">
@@ -2608,19 +2608,19 @@
         <v>141364</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>123090</v>
+        <v>125024</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>158225</v>
+        <v>161659</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4228279663462521</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3681701381038158</v>
+        <v>0.3739527771300843</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.473261121863617</v>
+        <v>0.4835299825595903</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -2629,19 +2629,19 @@
         <v>31736</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>20985</v>
+        <v>21883</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>42974</v>
+        <v>44016</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08401031833979629</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05555158960181956</v>
+        <v>0.05792787037117647</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1137601502032623</v>
+        <v>0.116517897798313</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>168</v>
@@ -2650,19 +2650,19 @@
         <v>173100</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>149562</v>
+        <v>151478</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>197539</v>
+        <v>195831</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2430865383683039</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2100324989435705</v>
+        <v>0.2127225182302543</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2774065489946305</v>
+        <v>0.275007903436536</v>
       </c>
     </row>
     <row r="31">
@@ -2679,19 +2679,19 @@
         <v>7564</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3502</v>
+        <v>2941</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15607</v>
+        <v>14800</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02262291629854661</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01047521223973508</v>
+        <v>0.008798073130844465</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04668236267109717</v>
+        <v>0.04426745993057703</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2700,19 +2700,19 @@
         <v>3045</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9171</v>
+        <v>9091</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.008060192040080745</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.00262418014882463</v>
+        <v>0.00262732850370776</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02427668260594629</v>
+        <v>0.02406455136087534</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2721,19 +2721,19 @@
         <v>10608</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4962</v>
+        <v>5126</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19113</v>
+        <v>18616</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.014897448428538</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006968040420817179</v>
+        <v>0.007198454785745038</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02684014479294357</v>
+        <v>0.02614242287178319</v>
       </c>
     </row>
     <row r="32">
@@ -2750,19 +2750,19 @@
         <v>50668</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37982</v>
+        <v>38052</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64430</v>
+        <v>64805</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1515517080824423</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1136067118518692</v>
+        <v>0.1138156639250679</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1927136000488271</v>
+        <v>0.1938366395407523</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>24</v>
@@ -2771,19 +2771,19 @@
         <v>26983</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17601</v>
+        <v>18551</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>38410</v>
+        <v>38505</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0714276011175609</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04659338992739523</v>
+        <v>0.04910802001445229</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.101678091718706</v>
+        <v>0.1019284190428604</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>72</v>
@@ -2792,19 +2792,19 @@
         <v>77651</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>62116</v>
+        <v>62709</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>98206</v>
+        <v>98672</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1090461848723549</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08723031248366381</v>
+        <v>0.08806346600468369</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1379122671843026</v>
+        <v>0.1385658736570177</v>
       </c>
     </row>
     <row r="33">
@@ -2896,19 +2896,19 @@
         <v>110164</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>95682</v>
+        <v>96030</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>124152</v>
+        <v>123960</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4301038433229104</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3735625738208687</v>
+        <v>0.3749221332163108</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4847165189101704</v>
+        <v>0.483966782684935</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>291</v>
@@ -2917,19 +2917,19 @@
         <v>386503</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>375130</v>
+        <v>376489</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>392401</v>
+        <v>393191</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9689614869436628</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.940448214570949</v>
+        <v>0.9438550063308525</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9837466153504069</v>
+        <v>0.9857266450326996</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>421</v>
@@ -2938,19 +2938,19 @@
         <v>496667</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>476085</v>
+        <v>473386</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>517878</v>
+        <v>516481</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7582502696939899</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7268290642414097</v>
+        <v>0.7227083887446811</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7906334107833902</v>
+        <v>0.7884996786993995</v>
       </c>
     </row>
     <row r="35">
@@ -2967,19 +2967,19 @@
         <v>122106</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>106984</v>
+        <v>107249</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>136763</v>
+        <v>135265</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.476728704355431</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4176891648080053</v>
+        <v>0.4187231556958999</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5339529062575605</v>
+        <v>0.5281061244414048</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2988,19 +2988,19 @@
         <v>4367</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12421</v>
+        <v>11648</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01094749789763447</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003011248506111332</v>
+        <v>0.003035666064928964</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03113971740837333</v>
+        <v>0.02920187442895397</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>145</v>
@@ -3009,19 +3009,19 @@
         <v>126473</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>107020</v>
+        <v>108375</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>146545</v>
+        <v>148394</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1930834036356963</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.163385476846468</v>
+        <v>0.1654529717640507</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2237276048369902</v>
+        <v>0.2265495003488597</v>
       </c>
     </row>
     <row r="36">
@@ -3038,19 +3038,19 @@
         <v>4909</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2330</v>
+        <v>1669</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10326</v>
+        <v>9923</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01916462548510244</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.009095598005949213</v>
+        <v>0.006515094776120723</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04031583027282429</v>
+        <v>0.03874205591152584</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9070</v>
+        <v>9216</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00679741767213503</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02273953363087765</v>
+        <v>0.02310355841092969</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -3080,19 +3080,19 @@
         <v>7620</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3366</v>
+        <v>3440</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>14571</v>
+        <v>14622</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.011633406254834</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005138191681818055</v>
+        <v>0.005251710997767395</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02224466852360362</v>
+        <v>0.02232332608819531</v>
       </c>
     </row>
     <row r="37">
@@ -3109,19 +3109,19 @@
         <v>18955</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12824</v>
+        <v>12927</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28568</v>
+        <v>28015</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07400282683655623</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0500676665412107</v>
+        <v>0.05046895650215089</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.111535601215144</v>
+        <v>0.1093751694205584</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -3130,19 +3130,19 @@
         <v>5303</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13077</v>
+        <v>13483</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01329359748656769</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003417805033533955</v>
+        <v>0.003414055533272727</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03278395737115235</v>
+        <v>0.03380248300396189</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>27</v>
@@ -3151,19 +3151,19 @@
         <v>24257</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>16835</v>
+        <v>16038</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>34448</v>
+        <v>34076</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03703292041547975</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02570168167803074</v>
+        <v>0.02448429538959037</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05259044042071446</v>
+        <v>0.05202267149395012</v>
       </c>
     </row>
     <row r="38">
@@ -3255,19 +3255,19 @@
         <v>1512996</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1457084</v>
+        <v>1457945</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1573786</v>
+        <v>1579222</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4459937995900738</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4295123441060736</v>
+        <v>0.4297661004291906</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4639132192937351</v>
+        <v>0.4655156749578715</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2075</v>
@@ -3276,19 +3276,19 @@
         <v>2229945</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2167374</v>
+        <v>2165127</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>2297459</v>
+        <v>2289146</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6300876540347498</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6124076963580812</v>
+        <v>0.6117728115187643</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6491643457869958</v>
+        <v>0.6468153934602578</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>3529</v>
@@ -3297,19 +3297,19 @@
         <v>3742941</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>3657053</v>
+        <v>3650266</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>3833455</v>
+        <v>3833060</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5399886897402438</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5275977941761679</v>
+        <v>0.5266186675772446</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5530469836492832</v>
+        <v>0.5529900881304646</v>
       </c>
     </row>
     <row r="40">
@@ -3326,19 +3326,19 @@
         <v>703281</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>653028</v>
+        <v>656745</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>749061</v>
+        <v>754237</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2073099158523271</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1924966950859066</v>
+        <v>0.1935922155425106</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2208045904944239</v>
+        <v>0.2223303309293249</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>365</v>
@@ -3347,19 +3347,19 @@
         <v>387179</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1094004155006001</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1046</v>
@@ -3368,19 +3368,19 @@
         <v>1090460</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1027544</v>
+        <v>1030706</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1151965</v>
+        <v>1163082</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.157319150229109</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1482422452210958</v>
+        <v>0.1486984950277908</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1661922763723642</v>
+        <v>0.1677962366239324</v>
       </c>
     </row>
     <row r="41">
@@ -3397,19 +3397,19 @@
         <v>85745</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>67855</v>
+        <v>69295</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>106229</v>
+        <v>106357</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02527551363332192</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02000197935451804</v>
+        <v>0.02042655422398204</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0313136808077318</v>
+        <v>0.03135154532617775</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>72</v>
@@ -3418,19 +3418,19 @@
         <v>74404</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>59806</v>
+        <v>59067</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>93822</v>
+        <v>92631</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02102331796683824</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01689850649786415</v>
+        <v>0.01668995911509733</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02651008258389173</v>
+        <v>0.02617368020891655</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>153</v>
@@ -3439,19 +3439,19 @@
         <v>160149</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>135671</v>
+        <v>136299</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>186015</v>
+        <v>187686</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02310442179663991</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01957304236668609</v>
+        <v>0.01966368197785931</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02683606342778791</v>
+        <v>0.02707711918948483</v>
       </c>
     </row>
     <row r="42">
@@ -3468,19 +3468,19 @@
         <v>1090392</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1032901</v>
+        <v>1034006</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1147265</v>
+        <v>1146673</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3214207709242772</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3044736486004316</v>
+        <v>0.3047993307146093</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3381855192489536</v>
+        <v>0.3380109153811833</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>821</v>
@@ -3489,19 +3489,19 @@
         <v>847575</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>795408</v>
+        <v>793285</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>902260</v>
+        <v>901754</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2394886124978119</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.224748469136502</v>
+        <v>0.2241485366542341</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2549403789690229</v>
+        <v>0.2547974147981649</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1834</v>
@@ -3510,19 +3510,19 @@
         <v>1937967</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1854040</v>
+        <v>1866061</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2011178</v>
+        <v>2025133</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2795877382340072</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2674796161425477</v>
+        <v>0.2692139544330885</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2901497687024669</v>
+        <v>0.2921630909554056</v>
       </c>
     </row>
     <row r="43">
@@ -3857,19 +3857,19 @@
         <v>308175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>281737</v>
+        <v>276975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>335274</v>
+        <v>334309</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7557141953079238</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6908833888923186</v>
+        <v>0.6792056382015269</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.822166273454903</v>
+        <v>0.8198009452973193</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -3878,19 +3878,19 @@
         <v>271167</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>249073</v>
+        <v>248050</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290979</v>
+        <v>291900</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.753141980173838</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6917761798445897</v>
+        <v>0.6889362183335807</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8081659586464558</v>
+        <v>0.8107264860399609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>288</v>
@@ -3899,19 +3899,19 @@
         <v>579343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>542140</v>
+        <v>542315</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>613047</v>
+        <v>614843</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.754508058622305</v>
+        <v>0.7545080586223049</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7060563643614276</v>
+        <v>0.7062851970994855</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7984022994265353</v>
+        <v>0.8007412206471924</v>
       </c>
     </row>
     <row r="5">
@@ -3928,19 +3928,19 @@
         <v>6465</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17972</v>
+        <v>19406</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01585368576744437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003712248958804691</v>
+        <v>0.00374598192929184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0440718037038297</v>
+        <v>0.04758805839172211</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -3949,19 +3949,19 @@
         <v>20280</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10756</v>
+        <v>10493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33728</v>
+        <v>34588</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05632665573319407</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02987298531103224</v>
+        <v>0.02914246502062224</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09367729843824051</v>
+        <v>0.09606444542772985</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -3970,19 +3970,19 @@
         <v>26745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15376</v>
+        <v>15195</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43679</v>
+        <v>44095</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03483185489674992</v>
+        <v>0.03483185489674993</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02002439844838677</v>
+        <v>0.01978909049016394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05688545689905445</v>
+        <v>0.05742755034176597</v>
       </c>
     </row>
     <row r="6">
@@ -3999,19 +3999,19 @@
         <v>20719</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8858</v>
+        <v>9071</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39619</v>
+        <v>39799</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05080835956978588</v>
+        <v>0.05080835956978586</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02172241047585272</v>
+        <v>0.02224434380817896</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0971541567000835</v>
+        <v>0.0975953254975374</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -4020,19 +4020,19 @@
         <v>8142</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2650</v>
+        <v>2707</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20493</v>
+        <v>21520</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02261452912290427</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007359237415563679</v>
+        <v>0.007517474711514666</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.056916580106553</v>
+        <v>0.05976938033951338</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -4041,19 +4041,19 @@
         <v>28862</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15411</v>
+        <v>15591</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50725</v>
+        <v>50824</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03758799834903323</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02007117038931829</v>
+        <v>0.02030443525968715</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06606117053606146</v>
+        <v>0.06619095533634452</v>
       </c>
     </row>
     <row r="7">
@@ -4070,19 +4070,19 @@
         <v>72434</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49324</v>
+        <v>47495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99198</v>
+        <v>100141</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.177623759354846</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1209529851726805</v>
+        <v>0.1164676309802327</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2432560009828492</v>
+        <v>0.2455687468935115</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -4091,19 +4091,19 @@
         <v>60458</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43270</v>
+        <v>42946</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81337</v>
+        <v>83426</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1679168349700637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1201796579354039</v>
+        <v>0.1192789386164024</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2259049307676607</v>
+        <v>0.2317091959352992</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -4112,19 +4112,19 @@
         <v>132892</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104326</v>
+        <v>101316</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>165447</v>
+        <v>163835</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1730720881319119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1358685895090262</v>
+        <v>0.1319491839245083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2154699733273085</v>
+        <v>0.2133709358080465</v>
       </c>
     </row>
     <row r="8">
@@ -4216,19 +4216,19 @@
         <v>289540</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>259535</v>
+        <v>261244</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>314980</v>
+        <v>317069</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6071415769089222</v>
+        <v>0.6071415769089221</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5442231721547769</v>
+        <v>0.5478079423349944</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.660488346320712</v>
+        <v>0.6648682272471816</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>317</v>
@@ -4237,19 +4237,19 @@
         <v>344976</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>323920</v>
+        <v>319021</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>366098</v>
+        <v>364098</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6884616009515809</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6464397571010968</v>
+        <v>0.6366627608255222</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7306130652537205</v>
+        <v>0.7266229945439181</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>498</v>
@@ -4258,19 +4258,19 @@
         <v>634516</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>596793</v>
+        <v>595088</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>667320</v>
+        <v>665636</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6488074246685248</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6102346872990491</v>
+        <v>0.6084915524092126</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6823501567583964</v>
+        <v>0.680628096822196</v>
       </c>
     </row>
     <row r="10">
@@ -4287,19 +4287,19 @@
         <v>25734</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15373</v>
+        <v>14922</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42030</v>
+        <v>41383</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05396146613479385</v>
+        <v>0.05396146613479386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03223677994568667</v>
+        <v>0.03129105635251674</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08813304033794546</v>
+        <v>0.0867770607680818</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -4308,19 +4308,19 @@
         <v>34069</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22159</v>
+        <v>23677</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47756</v>
+        <v>47853</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06799027652198512</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.044223035393307</v>
+        <v>0.04725164036142094</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09530563651372767</v>
+        <v>0.09549959470535758</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -4329,19 +4329,19 @@
         <v>59802</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43360</v>
+        <v>44547</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77208</v>
+        <v>80295</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06114939167616378</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04433709364677674</v>
+        <v>0.04555026078620365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07894727558365171</v>
+        <v>0.0821034554044467</v>
       </c>
     </row>
     <row r="11">
@@ -4358,19 +4358,19 @@
         <v>23749</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13313</v>
+        <v>13721</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38171</v>
+        <v>39493</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04980046462250171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02791621543670106</v>
+        <v>0.02877277018921647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08004186186501677</v>
+        <v>0.08281343148434162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -4379,19 +4379,19 @@
         <v>13182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6663</v>
+        <v>6913</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22299</v>
+        <v>22265</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02630609735449825</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01329782787036429</v>
+        <v>0.01379696861070086</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04450096143980005</v>
+        <v>0.04443336698481389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -4400,19 +4400,19 @@
         <v>36931</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24299</v>
+        <v>24457</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54745</v>
+        <v>54863</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0377626825224459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02484652732898996</v>
+        <v>0.02500802462395068</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05597817106667438</v>
+        <v>0.05609910803642698</v>
       </c>
     </row>
     <row r="12">
@@ -4429,19 +4429,19 @@
         <v>137867</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115121</v>
+        <v>115248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>165544</v>
+        <v>165428</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2890964923337822</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2414004525403904</v>
+        <v>0.2416664830320759</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3471326676646408</v>
+        <v>0.3468882030067116</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -4450,19 +4450,19 @@
         <v>108856</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>90176</v>
+        <v>90026</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>128845</v>
+        <v>130286</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2172420251719356</v>
+        <v>0.2172420251719357</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1799619238823788</v>
+        <v>0.1796623195637015</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.257133051254713</v>
+        <v>0.2600083780051161</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>192</v>
@@ -4471,19 +4471,19 @@
         <v>246724</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>217517</v>
+        <v>215292</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>280985</v>
+        <v>283596</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2522805011328654</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2224159040951615</v>
+        <v>0.2201411428581367</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2873132088965228</v>
+        <v>0.289983577552693</v>
       </c>
     </row>
     <row r="13">
@@ -4575,19 +4575,19 @@
         <v>402028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>375333</v>
+        <v>375231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>427318</v>
+        <v>425523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6487893945713987</v>
+        <v>0.6487893945713986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6057082818472811</v>
+        <v>0.6055439147122533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6896011668649348</v>
+        <v>0.6867045029477585</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>574</v>
@@ -4596,19 +4596,19 @@
         <v>419180</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>398162</v>
+        <v>399755</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>439081</v>
+        <v>439058</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6737726189909786</v>
+        <v>0.6737726189909788</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6399881458969402</v>
+        <v>0.642549650850883</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7057609678008546</v>
+        <v>0.7057236680068637</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>928</v>
@@ -4617,19 +4617,19 @@
         <v>821208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>785365</v>
+        <v>790656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>850920</v>
+        <v>856015</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6613059572521882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6324415826028364</v>
+        <v>0.6367027368642091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6852323336247008</v>
+        <v>0.6893351238806226</v>
       </c>
     </row>
     <row r="15">
@@ -4646,19 +4646,19 @@
         <v>49282</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>36028</v>
+        <v>35848</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>67489</v>
+        <v>67675</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07953139663387697</v>
+        <v>0.07953139663387694</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05814192022766919</v>
+        <v>0.05785176403292214</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1089124381057574</v>
+        <v>0.1092130593265409</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>74</v>
@@ -4667,19 +4667,19 @@
         <v>56501</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>44868</v>
+        <v>44819</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>69618</v>
+        <v>69878</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09081738882227472</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07211892475961088</v>
+        <v>0.07203968608598095</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1119012988944736</v>
+        <v>0.1123197192619807</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>115</v>
@@ -4688,19 +4688,19 @@
         <v>105783</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>85797</v>
+        <v>88665</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>126202</v>
+        <v>129107</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.08518566392414199</v>
+        <v>0.08518566392414198</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06909074322086195</v>
+        <v>0.07140026660839238</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1016286075972833</v>
+        <v>0.1039674758186082</v>
       </c>
     </row>
     <row r="16">
@@ -4717,19 +4717,19 @@
         <v>13123</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6794</v>
+        <v>7084</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22718</v>
+        <v>22307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02117735070253151</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01096390176258663</v>
+        <v>0.01143135722930902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03666160068863345</v>
+        <v>0.03599833341924092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -4738,19 +4738,19 @@
         <v>11485</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6943</v>
+        <v>6689</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18116</v>
+        <v>18020</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01846029161942609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01115958178009944</v>
+        <v>0.01075168869577605</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02911906829347238</v>
+        <v>0.02896489713149214</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -4759,19 +4759,19 @@
         <v>24608</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16699</v>
+        <v>15407</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37277</v>
+        <v>34887</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01981610766400505</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01344772143316075</v>
+        <v>0.01240680737432458</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0300188026199375</v>
+        <v>0.02809379378036341</v>
       </c>
     </row>
     <row r="17">
@@ -4788,19 +4788,19 @@
         <v>155226</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>132246</v>
+        <v>133686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178662</v>
+        <v>180330</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2505018580921929</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2134180792562217</v>
+        <v>0.2157416131756328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2883226264742732</v>
+        <v>0.2910144226027015</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>181</v>
@@ -4809,19 +4809,19 @@
         <v>134973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116888</v>
+        <v>118075</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152876</v>
+        <v>153730</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2169497005673205</v>
+        <v>0.2169497005673204</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1878804612638666</v>
+        <v>0.1897889285986301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2457261687356859</v>
+        <v>0.2470989850626665</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>320</v>
@@ -4830,19 +4830,19 @@
         <v>290199</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>265728</v>
+        <v>261824</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>321531</v>
+        <v>317867</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2336922711596648</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2139862898309071</v>
+        <v>0.2108427409098599</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2589237466395192</v>
+        <v>0.2559729154901876</v>
       </c>
     </row>
     <row r="18">
@@ -4934,19 +4934,19 @@
         <v>389582</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>361843</v>
+        <v>361366</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>416433</v>
+        <v>417342</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.556963050726204</v>
+        <v>0.5569630507262039</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5173054431396725</v>
+        <v>0.5166232577226301</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5953505069927475</v>
+        <v>0.5966500996869667</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>726</v>
@@ -4955,19 +4955,19 @@
         <v>468556</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>446690</v>
+        <v>448748</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>487963</v>
+        <v>490659</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6370767899491735</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6073468657252437</v>
+        <v>0.6101450155973712</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6634633013802005</v>
+        <v>0.6671290907989424</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1104</v>
@@ -4976,19 +4976,19 @@
         <v>858138</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>821298</v>
+        <v>825225</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>891717</v>
+        <v>892183</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5980249404707718</v>
+        <v>0.5980249404707719</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5723512245953442</v>
+        <v>0.5750881161520957</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.621425764317469</v>
+        <v>0.6217499436439521</v>
       </c>
     </row>
     <row r="20">
@@ -5005,19 +5005,19 @@
         <v>114573</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>93902</v>
+        <v>94861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>140115</v>
+        <v>137505</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1637980681873493</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1342457134901845</v>
+        <v>0.1356168907821282</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2003141067430839</v>
+        <v>0.1965823873757715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>138</v>
@@ -5026,19 +5026,19 @@
         <v>92481</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78838</v>
+        <v>79332</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>105846</v>
+        <v>109469</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1257427216863883</v>
+        <v>0.1257427216863884</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1071924027238747</v>
+        <v>0.1078642500518786</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.143914983805707</v>
+        <v>0.1488409642591209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>240</v>
@@ -5047,19 +5047,19 @@
         <v>207054</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>184613</v>
+        <v>181376</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>235235</v>
+        <v>232622</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1442929938097229</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1286544713341486</v>
+        <v>0.1263984240675542</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1639322264915954</v>
+        <v>0.1621107869772017</v>
       </c>
     </row>
     <row r="21">
@@ -5076,19 +5076,19 @@
         <v>9843</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4588</v>
+        <v>4731</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17522</v>
+        <v>17724</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01407148210238192</v>
+        <v>0.01407148210238191</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006559417904091019</v>
+        <v>0.00676376497451466</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02504995072537659</v>
+        <v>0.02533913647134746</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>33</v>
@@ -5097,19 +5097,19 @@
         <v>21639</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15768</v>
+        <v>15872</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29919</v>
+        <v>30181</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02942217918042698</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02143869189930482</v>
+        <v>0.02158029235846622</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04067998283121686</v>
+        <v>0.04103567970864137</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>42</v>
@@ -5118,19 +5118,19 @@
         <v>31482</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>23213</v>
+        <v>22517</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42454</v>
+        <v>42177</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02193940384757272</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01617702138393666</v>
+        <v>0.01569192853039414</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02958560964130486</v>
+        <v>0.02939256211969404</v>
       </c>
     </row>
     <row r="22">
@@ -5147,19 +5147,19 @@
         <v>185478</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>161726</v>
+        <v>161298</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>208235</v>
+        <v>210933</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2651673989840649</v>
+        <v>0.2651673989840648</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2312105938863039</v>
+        <v>0.23059902862252</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2977013882504642</v>
+        <v>0.3015585456763234</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>242</v>
@@ -5168,19 +5168,19 @@
         <v>152802</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>137399</v>
+        <v>136048</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>171819</v>
+        <v>172276</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2077583091840111</v>
+        <v>0.2077583091840112</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1868161728328566</v>
+        <v>0.1849784226118657</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2336149664972653</v>
+        <v>0.2342367807127951</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>417</v>
@@ -5189,19 +5189,19 @@
         <v>338280</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>306662</v>
+        <v>308358</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>366592</v>
+        <v>368726</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2357426618719325</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2137088519445145</v>
+        <v>0.2148903739533071</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2554726793365912</v>
+        <v>0.2569599020396918</v>
       </c>
     </row>
     <row r="23">
@@ -5293,19 +5293,19 @@
         <v>253849</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>229979</v>
+        <v>228670</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>277644</v>
+        <v>276438</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4173335493021868</v>
+        <v>0.4173335493021867</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3780903844360544</v>
+        <v>0.375937793087333</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4564525175525417</v>
+        <v>0.4544703381701563</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>634</v>
@@ -5314,19 +5314,19 @@
         <v>380193</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>361700</v>
+        <v>360905</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>398101</v>
+        <v>397812</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.6244393833265719</v>
+        <v>0.624439383326572</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5940654779343201</v>
+        <v>0.5927595999754235</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.653852646315632</v>
+        <v>0.6533778497980636</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>915</v>
@@ -5335,19 +5335,19 @@
         <v>634043</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>602659</v>
+        <v>601266</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>664395</v>
+        <v>661193</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.5209367291555999</v>
+        <v>0.5209367291556</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4951512997632328</v>
+        <v>0.4940073277223913</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5458749671215618</v>
+        <v>0.5432437627266078</v>
       </c>
     </row>
     <row r="25">
@@ -5364,19 +5364,19 @@
         <v>166184</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>146515</v>
+        <v>146699</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>189610</v>
+        <v>188986</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2732097777839579</v>
+        <v>0.2732097777839578</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2408734218792144</v>
+        <v>0.241176626691207</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3117230830044664</v>
+        <v>0.3106972218716464</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>149</v>
@@ -5385,19 +5385,19 @@
         <v>94326</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82298</v>
+        <v>80070</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>108382</v>
+        <v>108659</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1549239398963862</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1351690808795566</v>
+        <v>0.1315094792552507</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1780088177775463</v>
+        <v>0.1784648446968636</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>328</v>
@@ -5406,19 +5406,19 @@
         <v>260510</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>233465</v>
+        <v>236096</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>287892</v>
+        <v>286257</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2140381518637781</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1918172122520283</v>
+        <v>0.1939793869696897</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.236535020697185</v>
+        <v>0.2351916827338713</v>
       </c>
     </row>
     <row r="26">
@@ -5435,19 +5435,19 @@
         <v>10052</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4955</v>
+        <v>4916</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17945</v>
+        <v>18614</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01652512464344455</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008145656825996102</v>
+        <v>0.008082040543290221</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02950120962649297</v>
+        <v>0.03060235855722895</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -5456,19 +5456,19 @@
         <v>13583</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8287</v>
+        <v>8311</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19902</v>
+        <v>20224</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02230935168941753</v>
+        <v>0.02230935168941754</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01361148161093175</v>
+        <v>0.01365099356869165</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03268791490427704</v>
+        <v>0.03321630785316074</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -5477,19 +5477,19 @@
         <v>23635</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15820</v>
+        <v>16177</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33335</v>
+        <v>33691</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01941864194960772</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01299798338791474</v>
+        <v>0.01329148093320223</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02738859481407996</v>
+        <v>0.02768126671132015</v>
       </c>
     </row>
     <row r="27">
@@ -5506,19 +5506,19 @@
         <v>178180</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>157698</v>
+        <v>156882</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>202042</v>
+        <v>200757</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2929315482704108</v>
+        <v>0.2929315482704107</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2592586323233843</v>
+        <v>0.2579171254004124</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3321616275331828</v>
+        <v>0.3300479057528911</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>198</v>
@@ -5527,19 +5527,19 @@
         <v>120753</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>105513</v>
+        <v>105651</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>137117</v>
+        <v>137321</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.1983273250876242</v>
+        <v>0.1983273250876243</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1732967579598077</v>
+        <v>0.1735239221881117</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2252042395455624</v>
+        <v>0.2255403765591703</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>390</v>
@@ -5548,19 +5548,19 @@
         <v>298933</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>269080</v>
+        <v>274107</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>324515</v>
+        <v>327932</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2456064770310142</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2210796265095548</v>
+        <v>0.2252097677172735</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2666249273759715</v>
+        <v>0.2694331415143905</v>
       </c>
     </row>
     <row r="28">
@@ -5652,19 +5652,19 @@
         <v>160595</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>145685</v>
+        <v>144539</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>178478</v>
+        <v>177219</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3945038487325127</v>
+        <v>0.3945038487325126</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3578775170628034</v>
+        <v>0.3550640064642796</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4384350911184215</v>
+        <v>0.4353422725602273</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>641</v>
@@ -5673,19 +5673,19 @@
         <v>335352</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>321812</v>
+        <v>322089</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>347604</v>
+        <v>346975</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7636121381487028</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7327802720189717</v>
+        <v>0.7334099811624448</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7915094561463188</v>
+        <v>0.7900777877475107</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>873</v>
@@ -5694,19 +5694,19 @@
         <v>495947</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>471703</v>
+        <v>470877</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>519513</v>
+        <v>518203</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5860555916022823</v>
+        <v>0.5860555916022824</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5574067808452247</v>
+        <v>0.5564305431252542</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6139032780656711</v>
+        <v>0.6123546548086954</v>
       </c>
     </row>
     <row r="30">
@@ -5723,19 +5723,19 @@
         <v>171602</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>153308</v>
+        <v>154702</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>187389</v>
+        <v>190382</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4215445485287055</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3766041724877896</v>
+        <v>0.3800282276479473</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4603245810528691</v>
+        <v>0.4676775597375309</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>89</v>
@@ -5744,19 +5744,19 @@
         <v>49251</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>40457</v>
+        <v>40927</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>59281</v>
+        <v>60759</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1121456857709646</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09212188651601423</v>
+        <v>0.0931924268801821</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1349865425180294</v>
+        <v>0.1383514684287668</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>324</v>
@@ -5765,19 +5765,19 @@
         <v>220853</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>200856</v>
+        <v>199939</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>241937</v>
+        <v>243451</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2609794972888392</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2373497706154022</v>
+        <v>0.236265518886419</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2858948586452604</v>
+        <v>0.2876833029717059</v>
       </c>
     </row>
     <row r="31">
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5065</v>
+        <v>5033</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003907141004250189</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01244243175714964</v>
+        <v>0.01236473254040515</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -5815,19 +5815,19 @@
         <v>7267</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3969</v>
+        <v>4118</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11847</v>
+        <v>11663</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0165473189949916</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009037883942081867</v>
+        <v>0.00937783425480357</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02697516041396544</v>
+        <v>0.02655770532285815</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -5836,19 +5836,19 @@
         <v>8858</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5278</v>
+        <v>5107</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14446</v>
+        <v>14317</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01046686397373498</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006236878013566438</v>
+        <v>0.006034458970965875</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01707102421714042</v>
+        <v>0.01691853016860275</v>
       </c>
     </row>
     <row r="32">
@@ -5865,19 +5865,19 @@
         <v>73292</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>60605</v>
+        <v>61738</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>86442</v>
+        <v>87144</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1800444617345318</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.148876372133807</v>
+        <v>0.1516617947207778</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.212345837646138</v>
+        <v>0.2140710546172825</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>84</v>
@@ -5886,19 +5886,19 @@
         <v>47296</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37904</v>
+        <v>39060</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>57182</v>
+        <v>57460</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1076948570853411</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08630954782019147</v>
+        <v>0.08894139219216575</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1302059314756362</v>
+        <v>0.1308396199557959</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>185</v>
@@ -5907,19 +5907,19 @@
         <v>120588</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>104093</v>
+        <v>104985</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>137297</v>
+        <v>137957</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1424980471351435</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1230052071383196</v>
+        <v>0.1240593474041004</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.162241915367216</v>
+        <v>0.1630220825558475</v>
       </c>
     </row>
     <row r="33">
@@ -6011,19 +6011,19 @@
         <v>160436</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>144921</v>
+        <v>146554</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>174398</v>
+        <v>174976</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5172039599618226</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.467189505634194</v>
+        <v>0.4724520527073283</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5622135959141723</v>
+        <v>0.5640777212145559</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>835</v>
@@ -6032,19 +6032,19 @@
         <v>438196</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>429823</v>
+        <v>430607</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>444685</v>
+        <v>445343</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9431510982381138</v>
+        <v>0.9431510982381136</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9251294549637745</v>
+        <v>0.9268161669933631</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.957116511150095</v>
+        <v>0.9585327146775022</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1076</v>
@@ -6053,19 +6053,19 @@
         <v>598632</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>580315</v>
+        <v>578029</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>618915</v>
+        <v>616106</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.7726208270889202</v>
+        <v>0.7726208270889201</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7489794704970189</v>
+        <v>0.7460300613414595</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7987983120135673</v>
+        <v>0.7951731679594102</v>
       </c>
     </row>
     <row r="35">
@@ -6082,19 +6082,19 @@
         <v>129568</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>114807</v>
+        <v>115870</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>143889</v>
+        <v>144261</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4176934927551423</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3701096010337585</v>
+        <v>0.3735370118988822</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4638608169767832</v>
+        <v>0.4650622212285479</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>34</v>
@@ -6103,19 +6103,19 @@
         <v>19635</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>13450</v>
+        <v>14120</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>26561</v>
+        <v>26956</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04226097005824699</v>
+        <v>0.04226097005824698</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02894961418339093</v>
+        <v>0.03039138464977838</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05716806747619559</v>
+        <v>0.05801880400616502</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>221</v>
@@ -6124,19 +6124,19 @@
         <v>149203</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>131002</v>
+        <v>131463</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>165960</v>
+        <v>167210</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1925674380223516</v>
+        <v>0.1925674380223515</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1690770870943873</v>
+        <v>0.1696723688011897</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2141956424745292</v>
+        <v>0.2158082095249004</v>
       </c>
     </row>
     <row r="36">
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3250</v>
+        <v>3129</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001973717587781392</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01047608707993505</v>
+        <v>0.0100862976041135</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -6174,19 +6174,19 @@
         <v>1435</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4740</v>
+        <v>4040</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.003087962415157229</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0006095882726273349</v>
+        <v>0.0006137679981679801</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01020174273189817</v>
+        <v>0.008695090370466559</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -6195,19 +6195,19 @@
         <v>2047</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>602</v>
+        <v>540</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5892</v>
+        <v>5119</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002641868392063368</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0007769005262080678</v>
+        <v>0.0006975148895771651</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.007604518387628913</v>
+        <v>0.006606614197934956</v>
       </c>
     </row>
     <row r="37">
@@ -6224,19 +6224,19 @@
         <v>19582</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13716</v>
+        <v>13100</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28161</v>
+        <v>27535</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0631288296952535</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04421560037854648</v>
+        <v>0.04223119553856459</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09078261084806832</v>
+        <v>0.08876664992433921</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -6248,16 +6248,16 @@
         <v>2426</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>9500</v>
+        <v>9539</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01149996928848205</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.005222609580135101</v>
+        <v>0.005221710333949615</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02044784114857794</v>
+        <v>0.02053227723689901</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>38</v>
@@ -6266,19 +6266,19 @@
         <v>24925</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>17258</v>
+        <v>17543</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>33704</v>
+        <v>33744</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03216986649666494</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02227419633847699</v>
+        <v>0.02264125477899335</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04350018880459378</v>
+        <v>0.04355115894400235</v>
       </c>
     </row>
     <row r="38">
@@ -6370,19 +6370,19 @@
         <v>1964205</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1897952</v>
+        <v>1900615</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>2023419</v>
+        <v>2029618</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.5565327501009546</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5377607224232632</v>
+        <v>0.538515302034123</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5733102850124038</v>
+        <v>0.5750667624491806</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>3883</v>
@@ -6391,19 +6391,19 @@
         <v>2657623</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2610180</v>
+        <v>2605440</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>2706485</v>
+        <v>2705860</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.7122360195297084</v>
+        <v>0.7122360195297082</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6995212735889615</v>
+        <v>0.6982510467306072</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.7253307884585781</v>
+        <v>0.7251632912519943</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>5682</v>
@@ -6412,19 +6412,19 @@
         <v>4621828</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>4544004</v>
+        <v>4534692</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>4704577</v>
+        <v>4707644</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.6365504866575343</v>
+        <v>0.6365504866575342</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.6258321059623767</v>
+        <v>0.6245495251827119</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6479473619577411</v>
+        <v>0.6483697607866755</v>
       </c>
     </row>
     <row r="40">
@@ -6441,19 +6441,19 @@
         <v>663408</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>617455</v>
+        <v>619828</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>709894</v>
+        <v>712187</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1879682382793692</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.174948186469735</v>
+        <v>0.1756205147130682</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2011394400142911</v>
+        <v>0.201789171700307</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>526</v>
@@ -6462,19 +6462,19 @@
         <v>366543</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>336342</v>
+        <v>339648</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>401101</v>
+        <v>399663</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.0982325421126517</v>
+        <v>0.09823254211265169</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09013864715065766</v>
+        <v>0.09102477497782381</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1074939738558148</v>
+        <v>0.1071087043942256</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1289</v>
@@ -6483,19 +6483,19 @@
         <v>1029951</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>973152</v>
+        <v>972218</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1081848</v>
+        <v>1086563</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1418520114208492</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1340292665893213</v>
+        <v>0.1339007272906237</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1489997439297438</v>
+        <v>0.1496490313241992</v>
       </c>
     </row>
     <row r="41">
@@ -6512,19 +6512,19 @@
         <v>79688</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>59030</v>
+        <v>60679</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>106310</v>
+        <v>107477</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02257872521900235</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01672537858933066</v>
+        <v>0.01719251606354184</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03012168334245065</v>
+        <v>0.03045236725108229</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>103</v>
@@ -6533,19 +6533,19 @@
         <v>76733</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>63194</v>
+        <v>61213</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>95316</v>
+        <v>94969</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.02056424389081857</v>
+        <v>0.02056424389081856</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01693589125854263</v>
+        <v>0.01640485309992923</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02554450049523973</v>
+        <v>0.02545157413234628</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>158</v>
@@ -6554,19 +6554,19 @@
         <v>156421</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>129797</v>
+        <v>131772</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>186072</v>
+        <v>189346</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02154345963461128</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01787648474453463</v>
+        <v>0.0181485204218441</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02562709915298617</v>
+        <v>0.0260780018245827</v>
       </c>
     </row>
     <row r="42">
@@ -6583,19 +6583,19 @@
         <v>822060</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>768167</v>
+        <v>768505</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>878540</v>
+        <v>875947</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.232920286400674</v>
+        <v>0.2329202864006739</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2176505075399477</v>
+        <v>0.2177460946047874</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2489232168708154</v>
+        <v>0.2481886344062854</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>849</v>
@@ -6604,19 +6604,19 @@
         <v>630481</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>589467</v>
+        <v>591246</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>670865</v>
+        <v>678133</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1689671944668214</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.157975652036824</v>
+        <v>0.1584522440002269</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1797901128163412</v>
+        <v>0.1817378517229384</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1605</v>
@@ -6625,19 +6625,19 @@
         <v>1452540</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1383567</v>
+        <v>1387153</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1524182</v>
+        <v>1528361</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2000540422870054</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1905545921188131</v>
+        <v>0.1910484833846902</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2099210109401287</v>
+        <v>0.2104965900497094</v>
       </c>
     </row>
     <row r="43">
